--- a/DE/Compiled Attendence/BT-CSE-II-B53_ECEG1012_3.xlsx
+++ b/DE/Compiled Attendence/BT-CSE-II-B53_ECEG1012_3.xlsx
@@ -451,92 +451,92 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2024-01-10 09.00</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-12 14.00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-13 09.00</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-17 09.00</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-19 14.00</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-20 09.00</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-24 09.00</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-27 09.00</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-31 09.00</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>2024-03-13 09.00</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-15 14.00</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-16 09.00</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-20 09.00</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-22 14.00</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-23 09.00</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2024-04-03 09.00</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2024-04-05 14.00</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-15 14.00</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-10 09.00</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-17 09.00</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-12 14.00</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-19 14.00</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-13 09.00</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-20 09.00</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-16 09.00</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-27 09.00</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-24 09.00</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-26 14.00</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-31 09.00</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-20 09.00</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-22 14.00</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>2024-03-23 09.00</t>
+          <t>2024-04-10 09.00</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -578,34 +578,34 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -777,13 +777,13 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -798,10 +798,10 @@
         <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -851,22 +851,22 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
         <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
         <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1130,10 +1130,10 @@
         <v>17</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1207,16 +1207,16 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>17</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1272,13 +1272,13 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1296,10 +1296,10 @@
         <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -1423,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1462,10 +1462,10 @@
         <v>17</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -1545,10 +1545,10 @@
         <v>17</v>
       </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1592,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
         <v>17</v>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -1690,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1711,10 +1711,10 @@
         <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1737,22 +1737,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
         <v>17</v>
@@ -1823,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1832,22 +1832,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1871,16 +1871,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
         <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1903,10 +1903,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1954,16 +1954,16 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>17</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -1989,16 +1989,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -2007,10 +2007,10 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2043,10 +2043,10 @@
         <v>17</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2120,16 +2120,16 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
         <v>17</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -2173,19 +2173,19 @@
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2209,10 +2209,10 @@
         <v>17</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22">
@@ -2235,31 +2235,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2268,16 +2268,16 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>17</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -2345,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -2369,16 +2369,16 @@
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -2404,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>17</v>
@@ -2490,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2505,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
         <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2624,10 +2624,10 @@
         <v>17</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -2659,25 +2659,25 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2701,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
         <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y27" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -2769,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -2790,10 +2790,10 @@
         <v>17</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -2849,13 +2849,13 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -2873,10 +2873,10 @@
         <v>17</v>
       </c>
       <c r="X29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -2902,34 +2902,34 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>17</v>
@@ -3003,19 +3003,19 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3033,16 +3033,16 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
         <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -3068,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3095,19 +3095,19 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
@@ -3184,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -3205,10 +3205,10 @@
         <v>17</v>
       </c>
       <c r="X33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -3255,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>1</v>
@@ -3267,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -3288,10 +3288,10 @@
         <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y34" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -3314,19 +3314,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3371,10 +3371,10 @@
         <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -3403,16 +3403,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>1</v>
@@ -3448,16 +3448,16 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3504,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
@@ -3516,10 +3516,10 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
@@ -3531,16 +3531,16 @@
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>17</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -3587,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3614,16 +3614,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" t="n">
         <v>17</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
